--- a/StructureDefinition-MappedCapability.xlsx
+++ b/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T11:54:44+00:00</t>
+    <t>2021-11-15T15:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-MappedCapability.xlsx
+++ b/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:19:15+00:00</t>
+    <t>2021-11-15T15:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MappedCapability.xlsx
+++ b/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:28:51+00:00</t>
+    <t>2021-11-15T15:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MappedCapability.xlsx
+++ b/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:45:40+00:00</t>
+    <t>2021-11-15T15:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MappedCapability.xlsx
+++ b/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T15:54:02+00:00</t>
+    <t>2021-11-15T16:00:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
